--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_123.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:03:44.020000', '0:04:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -708,497 +706,486 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4098837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:00:02.156928', '0:00:07.265318')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07542426147077311</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.7, 11.86)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:02.580000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:00:09.740000', '0:00:35.460000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2113636363636364</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.36, 7.56)]</t>
+          <t>[('0:00:05.780000', '0:00:11.380000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.44, 44.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
